--- a/Data/OurData3SanityCheck.xlsx
+++ b/Data/OurData3SanityCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC49F03-A637-3741-A98A-5EC34FD3C7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE8741-EAE2-D04E-98E6-D6C1075DFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="10" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -1143,12 +1143,6 @@
   <si>
     <t>Number scenarios hydrogen</t>
   </si>
-  <si>
-    <t xml:space="preserve">JOHAN SVERDRUP RP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATFJORD B </t>
-  </si>
 </sst>
 </file>
 
@@ -2137,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2254,10 +2248,10 @@
         <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N2" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" ref="O2">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K2,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K2,5), ",",".")</f>
@@ -2314,10 +2308,10 @@
         <v>14</v>
       </c>
       <c r="M3" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N3" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" ref="O3">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K3,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K3,5), ",",".")</f>
@@ -2374,10 +2368,10 @@
         <v>36</v>
       </c>
       <c r="M4" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N4" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" ref="O4">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K4,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K4,5), ",",".")</f>
@@ -2434,10 +2428,10 @@
         <v>23</v>
       </c>
       <c r="M5" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N5" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" ref="O5">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K5,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K5,5), ",",".")</f>
@@ -2494,10 +2488,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N6" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" ref="O6">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K6,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K6,5), ",",".")</f>
@@ -2554,10 +2548,10 @@
         <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N7" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" ref="O7">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K7,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K7,5), ",",".")</f>
@@ -2614,10 +2608,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N8" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" ref="O8">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K8,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K8,5), ",",".")</f>
@@ -2674,10 +2668,10 @@
         <v>17</v>
       </c>
       <c r="M9" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N9" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" ref="O9">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K9,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K9,5), ",",".")</f>
@@ -2734,10 +2728,10 @@
         <v>37</v>
       </c>
       <c r="M10" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N10" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" ref="O10">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K10,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K10,5), ",",".")</f>
@@ -2794,10 +2788,10 @@
         <v>51</v>
       </c>
       <c r="M11" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N11" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" ref="O11">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K11,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K11,5), ",",".")</f>
@@ -2854,10 +2848,10 @@
         <v>18</v>
       </c>
       <c r="M12" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N12" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" ref="O12">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K12,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K12,5), ",",".")</f>
@@ -2914,10 +2908,10 @@
         <v>42</v>
       </c>
       <c r="M13" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N13" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" ref="O13">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K13,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K13,5), ",",".")</f>
@@ -2974,10 +2968,10 @@
         <v>20</v>
       </c>
       <c r="M14" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N14" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" ref="O14">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K14,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K14,5), ",",".")</f>
@@ -3034,10 +3028,10 @@
         <v>4</v>
       </c>
       <c r="M15" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N15" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" ref="O15">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K15,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K15,5), ",",".")</f>
@@ -3094,10 +3088,10 @@
         <v>30</v>
       </c>
       <c r="M16" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N16" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" ref="O16">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K16,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K16,5), ",",".")</f>
@@ -3154,10 +3148,10 @@
         <v>22</v>
       </c>
       <c r="M17" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N17" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" ref="O17">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K17,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K17,5), ",",".")</f>
@@ -3214,10 +3208,10 @@
         <v>33</v>
       </c>
       <c r="M18" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N18" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" ref="O18">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K18,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K18,5), ",",".")</f>
@@ -3274,10 +3268,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N19" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" ref="O19">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K19,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K19,5), ",",".")</f>
@@ -3334,10 +3328,10 @@
         <v>16</v>
       </c>
       <c r="M20" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N20" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" ref="O20">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K20,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K20,5), ",",".")</f>
@@ -3394,10 +3388,10 @@
         <v>16</v>
       </c>
       <c r="M21" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N21" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" ref="O21">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K21,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K21,5), ",",".")</f>
@@ -3454,10 +3448,10 @@
         <v>43</v>
       </c>
       <c r="M22" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N22" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" ref="O22">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K22,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K22,5), ",",".")</f>
@@ -3514,10 +3508,10 @@
         <v>53</v>
       </c>
       <c r="M23" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N23" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O23" t="str" cm="1">
         <f t="array" ref="O23">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K23,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K23,5), ",",".")</f>
@@ -3574,10 +3568,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N24" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" ref="O24">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K24,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K24,5), ",",".")</f>
@@ -3634,10 +3628,10 @@
         <v>52</v>
       </c>
       <c r="M25" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N25" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O25" t="str" cm="1">
         <f t="array" ref="O25">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K25,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K25,5), ",",".")</f>
@@ -3694,10 +3688,10 @@
         <v>59</v>
       </c>
       <c r="M26" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N26" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O26" t="str" cm="1">
         <f t="array" ref="O26">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K26,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K26,5), ",",".")</f>
@@ -3754,10 +3748,10 @@
         <v>58</v>
       </c>
       <c r="M27" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N27" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O27" t="str" cm="1">
         <f t="array" ref="O27">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K27,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K27,5), ",",".")</f>
@@ -3814,10 +3808,10 @@
         <v>51</v>
       </c>
       <c r="M28" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N28" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O28" t="str" cm="1">
         <f t="array" ref="O28">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K28,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K28,5), ",",".")</f>
@@ -3874,10 +3868,10 @@
         <v>15</v>
       </c>
       <c r="M29" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N29" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O29" t="str" cm="1">
         <f t="array" ref="O29">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K29,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K29,5), ",",".")</f>
@@ -3934,10 +3928,10 @@
         <v>27</v>
       </c>
       <c r="M30" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N30" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O30" t="str" cm="1">
         <f t="array" ref="O30">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K30,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K30,5), ",",".")</f>
@@ -3994,10 +3988,10 @@
         <v>28</v>
       </c>
       <c r="M31" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N31" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O31" t="str" cm="1">
         <f t="array" ref="O31">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K31,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K31,5), ",",".")</f>
@@ -4054,10 +4048,10 @@
         <v>50</v>
       </c>
       <c r="M32" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N32" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O32" t="str" cm="1">
         <f t="array" ref="O32">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K32,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K32,5), ",",".")</f>
@@ -4114,10 +4108,10 @@
         <v>56</v>
       </c>
       <c r="M33" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N33" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O33" t="str" cm="1">
         <f t="array" ref="O33">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K33,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K33,5), ",",".")</f>
@@ -4174,10 +4168,10 @@
         <v>42</v>
       </c>
       <c r="M34" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N34" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O34" t="str" cm="1">
         <f t="array" ref="O34">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K34,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K34,5), ",",".")</f>
@@ -4234,10 +4228,10 @@
         <v>35</v>
       </c>
       <c r="M35" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N35" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O35" t="str" cm="1">
         <f t="array" ref="O35">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K35,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K35,5), ",",".")</f>
@@ -4294,10 +4288,10 @@
         <v>25</v>
       </c>
       <c r="M36" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N36" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O36" t="str" cm="1">
         <f t="array" ref="O36">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K36,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K36,5), ",",".")</f>
@@ -4354,10 +4348,10 @@
         <v>44</v>
       </c>
       <c r="M37" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N37" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O37" t="str" cm="1">
         <f t="array" ref="O37">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K37,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K37,5), ",",".")</f>
@@ -4414,10 +4408,10 @@
         <v>44</v>
       </c>
       <c r="M38" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N38" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O38" t="str" cm="1">
         <f t="array" ref="O38">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K38,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K38,5), ",",".")</f>
@@ -4474,10 +4468,10 @@
         <v>3</v>
       </c>
       <c r="M39" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N39" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O39" t="str" cm="1">
         <f t="array" ref="O39">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K39,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K39,5), ",",".")</f>
@@ -4534,10 +4528,10 @@
         <v>37</v>
       </c>
       <c r="M40" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N40" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O40" t="str" cm="1">
         <f t="array" ref="O40">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K40,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K40,5), ",",".")</f>
@@ -4594,10 +4588,10 @@
         <v>48</v>
       </c>
       <c r="M41" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N41" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O41" t="str" cm="1">
         <f t="array" ref="O41">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K41,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K41,5), ",",".")</f>
@@ -4654,10 +4648,10 @@
         <v>16</v>
       </c>
       <c r="M42" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N42" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O42" t="str" cm="1">
         <f t="array" ref="O42">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K42,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K42,5), ",",".")</f>
@@ -4708,10 +4702,10 @@
         <v>9</v>
       </c>
       <c r="M43" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N43" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O43" t="str" cm="1">
         <f t="array" ref="O43">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K43,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K43,5), ",",".")</f>
@@ -4762,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="M44" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N44" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O44" t="str" cm="1">
         <f t="array" ref="O44">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K44,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K44,5), ",",".")</f>
@@ -4816,10 +4810,10 @@
         <v>47</v>
       </c>
       <c r="M45" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N45" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O45" t="str" cm="1">
         <f t="array" ref="O45">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K45,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K45,5), ",",".")</f>
@@ -4869,10 +4863,10 @@
         <v>55</v>
       </c>
       <c r="M46" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N46" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O46" t="str" cm="1">
         <f t="array" ref="O46">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K46,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K46,5), ",",".")</f>
@@ -4923,10 +4917,10 @@
         <v>52</v>
       </c>
       <c r="M47" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N47" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O47" t="str" cm="1">
         <f t="array" ref="O47">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K47,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K47,5), ",",".")</f>
@@ -4974,10 +4968,10 @@
         <v>10</v>
       </c>
       <c r="M48" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N48" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O48" t="str" cm="1">
         <f t="array" ref="O48">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K48,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K48,5), ",",".")</f>
@@ -5025,10 +5019,10 @@
         <v>12</v>
       </c>
       <c r="M49" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N49" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O49" t="str" cm="1">
         <f t="array" ref="O49">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K49,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K49,5), ",",".")</f>
@@ -5076,10 +5070,10 @@
         <v>15</v>
       </c>
       <c r="M50" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N50" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O50" t="str" cm="1">
         <f t="array" ref="O50">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K50,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K50,5), ",",".")</f>
@@ -5127,10 +5121,10 @@
         <v>51</v>
       </c>
       <c r="M51" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N51" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O51" t="str" cm="1">
         <f t="array" ref="O51">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K51,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K51,5), ",",".")</f>
@@ -5178,10 +5172,10 @@
         <v>43</v>
       </c>
       <c r="M52" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N52" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O52" t="str" cm="1">
         <f t="array" ref="O52">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K52,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K52,5), ",",".")</f>
@@ -5238,10 +5232,10 @@
         <v>13</v>
       </c>
       <c r="M53" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N53" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O53" t="str" cm="1">
         <f t="array" ref="O53">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K53,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K53,5), ",",".")</f>
@@ -5298,10 +5292,10 @@
         <v>40</v>
       </c>
       <c r="M54" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N54" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O54" t="str" cm="1">
         <f t="array" ref="O54">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K54,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K54,5), ",",".")</f>
@@ -5358,10 +5352,10 @@
         <v>2</v>
       </c>
       <c r="M55" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N55" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O55" t="str" cm="1">
         <f t="array" ref="O55">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K55,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K55,5), ",",".")</f>
@@ -5409,10 +5403,10 @@
         <v>46</v>
       </c>
       <c r="M56" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N56" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O56" t="str" cm="1">
         <f t="array" ref="O56">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K56,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K56,5), ",",".")</f>
@@ -5460,10 +5454,10 @@
         <v>2</v>
       </c>
       <c r="M57" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N57" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O57" t="str" cm="1">
         <f t="array" ref="O57">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K57,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K57,5), ",",".")</f>
@@ -5511,10 +5505,10 @@
         <v>34</v>
       </c>
       <c r="M58" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N58" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O58" t="str" cm="1">
         <f t="array" ref="O58">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K58,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K58,5), ",",".")</f>
@@ -5562,10 +5556,10 @@
         <v>36</v>
       </c>
       <c r="M59" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N59" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O59" t="str" cm="1">
         <f t="array" ref="O59">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K59,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K59,5), ",",".")</f>
@@ -5613,10 +5607,10 @@
         <v>2</v>
       </c>
       <c r="M60" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N60" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O60" t="str" cm="1">
         <f t="array" ref="O60">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K60,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K60,5), ",",".")</f>
@@ -5664,10 +5658,10 @@
         <v>33</v>
       </c>
       <c r="M61" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N61" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O61" t="str" cm="1">
         <f t="array" ref="O61">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K61,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K61,5), ",",".")</f>
@@ -5711,10 +5705,10 @@
         <v>24</v>
       </c>
       <c r="M62" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="N62" s="3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="O62" t="str" cm="1">
         <f t="array" ref="O62">SUBSTITUTE(INDEX(Nodes!$A$3:$E$64,Arcs!K62,4) &amp; " " &amp; INDEX(Nodes!$A$3:$E$64,Arcs!K62,5), ",",".")</f>
@@ -5740,8 +5734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5821,8 +5815,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
-      <c r="D5" s="26" t="s">
-        <v>102</v>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5880,7 +5874,7 @@
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">SUM(IF(ISNUMBER(VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)),VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">SUM(IF(ISNUMBER(VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)),VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)))</f>
@@ -5929,7 +5923,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6134,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -6147,11 +6141,11 @@
       </c>
       <c r="K5">
         <f>HLOOKUP(A5,Traders!$A$1:$H$15,15,)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">SUM(B5:I5*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6357,7 +6351,7 @@
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -6373,7 +6367,7 @@
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">SUM(B10:I10*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -6496,10 +6490,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B95C95-5100-B242-B62A-0A2629824349}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6508,11 +6502,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>343</v>
+      <c r="A1" t="s">
+        <v>110</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>26</v>
@@ -6520,13 +6514,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -8270,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A14" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8522,8 +8527,7 @@
         <v>5</v>
       </c>
       <c r="X3" s="3">
-        <f>M3</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Y3" s="3">
         <v>0</v>
@@ -8634,8 +8638,7 @@
         <v>5</v>
       </c>
       <c r="X4" s="3">
-        <f t="shared" ref="X4:X61" si="1">M4</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="3">
         <v>0</v>
@@ -8644,38 +8647,38 @@
         <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA61" si="2">M4</f>
+        <f t="shared" ref="AA4:AA61" si="1">M4</f>
         <v>10</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <f t="shared" ref="AC4:AC61" si="3">O4</f>
+        <f t="shared" ref="AC4:AC61" si="2">O4</f>
         <v>3</v>
       </c>
       <c r="AD4" s="3">
-        <f t="shared" ref="AD4:AD61" si="4">P4</f>
+        <f t="shared" ref="AD4:AD61" si="3">P4</f>
         <v>5</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" ref="AE4:AE61" si="5">Q4</f>
+        <f t="shared" ref="AE4:AE61" si="4">Q4</f>
         <v>5</v>
       </c>
       <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AF61" si="6">R4</f>
+        <f t="shared" ref="AF4:AF61" si="5">R4</f>
         <v>5.2</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AG61" si="7">S4</f>
+        <f t="shared" ref="AG4:AG61" si="6">S4</f>
         <v>5.2</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" ref="AH4:AH61" si="8">T4</f>
+        <f t="shared" ref="AH4:AH61" si="7">T4</f>
         <v>5.4</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" ref="AI4:AI61" si="9">U4</f>
+        <f t="shared" ref="AI4:AI61" si="8">U4</f>
         <v>5.4</v>
       </c>
     </row>
@@ -8748,48 +8751,47 @@
         <v>5</v>
       </c>
       <c r="X5" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AF5" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF5" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG5" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AH5" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH5" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI5" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI5" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8860,48 +8862,47 @@
         <v>5</v>
       </c>
       <c r="X6" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF6" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG6" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH6" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI6" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI6" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8972,48 +8973,47 @@
         <v>5</v>
       </c>
       <c r="X7" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AF7" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF7" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG7" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AH7" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH7" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI7" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI7" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9086,48 +9086,47 @@
         <v>5</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF8" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG8" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH8" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI8" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI8" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9200,48 +9199,47 @@
         <v>5</v>
       </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD9" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF9" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG9" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AH9" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH9" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI9" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI9" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9312,48 +9310,47 @@
         <v>5</v>
       </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF10" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG10" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AH10" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH10" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI10" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI10" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9424,48 +9421,47 @@
         <v>5</v>
       </c>
       <c r="X11" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF11" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG11" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH11" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI11" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI11" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9536,48 +9532,47 @@
         <v>5</v>
       </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD12" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF12" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG12" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AH12" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH12" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI12" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI12" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9648,48 +9643,47 @@
         <v>5</v>
       </c>
       <c r="X13" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF13" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG13" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AH13" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH13" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI13" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI13" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9760,48 +9754,47 @@
         <v>5</v>
       </c>
       <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD14" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF14" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG14" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AH14" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH14" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI14" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI14" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9874,48 +9867,47 @@
         <v>5</v>
       </c>
       <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF15" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG15" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AH15" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH15" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI15" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI15" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9986,48 +9978,47 @@
         <v>5</v>
       </c>
       <c r="X16" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD16" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AF16" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF16" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG16" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AH16" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH16" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI16" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI16" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10098,48 +10089,47 @@
         <v>5</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD17" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF17" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG17" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AH17" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH17" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI17" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI17" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10210,48 +10200,47 @@
         <v>5</v>
       </c>
       <c r="X18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD18" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF18" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG18" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AH18" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH18" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI18" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI18" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10324,48 +10313,47 @@
         <v>5</v>
       </c>
       <c r="X19" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD19" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD19" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AF19" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF19" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG19" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AH19" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH19" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI19" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI19" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10438,48 +10426,47 @@
         <v>5</v>
       </c>
       <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD20" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF20" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG20" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AH20" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH20" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI20" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI20" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10552,48 +10539,47 @@
         <v>5</v>
       </c>
       <c r="X21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF21" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG21" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AH21" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH21" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI21" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI21" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10664,48 +10650,47 @@
         <v>5</v>
       </c>
       <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD22" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF22" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG22" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AH22" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH22" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI22" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI22" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10778,48 +10763,47 @@
         <v>5</v>
       </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD23" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD23" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF23" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG23" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AH23" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH23" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI23" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI23" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10892,48 +10876,47 @@
         <v>5</v>
       </c>
       <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD24" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD24" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF24" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG24" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AH24" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH24" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI24" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI24" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11004,48 +10987,47 @@
         <v>5</v>
       </c>
       <c r="X25" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD25" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF25" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG25" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AH25" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH25" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI25" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI25" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11116,48 +11098,47 @@
         <v>5</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD26" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF26" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG26" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AH26" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH26" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI26" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI26" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11230,48 +11211,47 @@
         <v>5</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD27" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF27" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG27" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AH27" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH27" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI27" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI27" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11344,48 +11324,47 @@
         <v>5</v>
       </c>
       <c r="X28" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="3">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF28" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG28" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AH28" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH28" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI28" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI28" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11458,48 +11437,47 @@
         <v>5</v>
       </c>
       <c r="X29" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD29" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF29" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG29" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AH29" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH29" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI29" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI29" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11570,48 +11548,47 @@
         <v>5</v>
       </c>
       <c r="X30" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="3">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD30" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AF30" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF30" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG30" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AH30" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH30" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI30" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI30" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11682,48 +11659,47 @@
         <v>5</v>
       </c>
       <c r="X31" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="3">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD31" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AF31" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF31" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG31" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AH31" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH31" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI31" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI31" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11794,48 +11770,47 @@
         <v>5</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD32" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF32" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG32" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG32" s="3">
+      <c r="AH32" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH32" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI32" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI32" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11908,48 +11883,47 @@
         <v>5</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD33" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF33" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG33" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AH33" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH33" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI33" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI33" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12020,48 +11994,47 @@
         <v>5</v>
       </c>
       <c r="X34" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="3">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD34" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE34" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AF34" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF34" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG34" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG34" s="3">
+      <c r="AH34" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH34" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI34" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI34" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12132,48 +12105,47 @@
         <v>5</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD35" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF35" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG35" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AH35" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH35" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI35" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI35" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12201,7 +12173,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36" s="2">
         <v>8889.5949999999993</v>
@@ -12246,48 +12218,47 @@
         <v>5</v>
       </c>
       <c r="X36" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="3">
+      <c r="AB36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD36" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD36" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AF36" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF36" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG36" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG36" s="3">
+      <c r="AH36" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH36" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI36" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI36" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12360,48 +12331,47 @@
         <v>5</v>
       </c>
       <c r="X37" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="3">
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD37" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AF37" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF37" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG37" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG37" s="3">
+      <c r="AH37" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH37" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI37" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI37" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12472,48 +12442,47 @@
         <v>5</v>
       </c>
       <c r="X38" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="3">
+      <c r="AB38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD38" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AF38" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF38" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG38" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG38" s="3">
+      <c r="AH38" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH38" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI38" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI38" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12584,48 +12553,47 @@
         <v>5</v>
       </c>
       <c r="X39" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="3">
+      <c r="AB39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD39" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AF39" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF39" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG39" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG39" s="3">
+      <c r="AH39" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH39" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI39" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI39" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12696,48 +12664,47 @@
         <v>5</v>
       </c>
       <c r="X40" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="3">
+      <c r="AB40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD40" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE40" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AF40" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF40" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG40" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG40" s="3">
+      <c r="AH40" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH40" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI40" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI40" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12810,48 +12777,47 @@
         <v>5</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD41" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF41" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG41" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG41" s="3">
+      <c r="AH41" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH41" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI41" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI41" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12922,48 +12888,47 @@
         <v>5</v>
       </c>
       <c r="X42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF42" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG42" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG42" s="3">
+      <c r="AH42" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH42" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI42" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI42" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13036,48 +13001,47 @@
         <v>5</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD43" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF43" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG43" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG43" s="3">
+      <c r="AH43" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH43" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI43" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI43" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13150,48 +13114,47 @@
         <v>5</v>
       </c>
       <c r="X44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD44" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF44" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG44" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG44" s="3">
+      <c r="AH44" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH44" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI44" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI44" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13262,48 +13225,47 @@
         <v>5</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD45" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF45" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG45" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG45" s="3">
+      <c r="AH45" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH45" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI45" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI45" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13374,48 +13336,47 @@
         <v>5</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD46" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF46" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG46" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG46" s="3">
+      <c r="AH46" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH46" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI46" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI46" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13486,48 +13447,47 @@
         <v>5</v>
       </c>
       <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF47" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG47" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG47" s="3">
+      <c r="AH47" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH47" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI47" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI47" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13598,48 +13558,47 @@
         <v>5</v>
       </c>
       <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD48" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF48" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG48" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG48" s="3">
+      <c r="AH48" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH48" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI48" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI48" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13712,48 +13671,47 @@
         <v>5</v>
       </c>
       <c r="X49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD49" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD49" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF49" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG49" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG49" s="3">
+      <c r="AH49" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH49" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI49" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI49" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13826,48 +13784,47 @@
         <v>5</v>
       </c>
       <c r="X50" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="3">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB50" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD50" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD50" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE50" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE50" s="3">
+      <c r="AF50" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF50" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG50" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG50" s="3">
+      <c r="AH50" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH50" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI50" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI50" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13940,48 +13897,47 @@
         <v>5</v>
       </c>
       <c r="X51" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="3">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD51" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD51" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE51" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE51" s="3">
+      <c r="AF51" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF51" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG51" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG51" s="3">
+      <c r="AH51" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH51" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI51" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI51" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14052,48 +14008,47 @@
         <v>5</v>
       </c>
       <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD52" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF52" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG52" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG52" s="3">
+      <c r="AH52" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH52" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI52" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI52" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14164,48 +14119,47 @@
         <v>5</v>
       </c>
       <c r="X53" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="3">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD53" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD53" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE53" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE53" s="3">
+      <c r="AF53" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF53" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG53" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG53" s="3">
+      <c r="AH53" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH53" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI53" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI53" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14278,48 +14232,47 @@
         <v>5</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD54" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD54" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF54" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG54" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG54" s="3">
+      <c r="AH54" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH54" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI54" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI54" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14390,48 +14343,47 @@
         <v>5</v>
       </c>
       <c r="X55" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y55" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="3">
+      <c r="AB55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB55" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD55" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD55" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE55" s="3">
+      <c r="AF55" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF55" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG55" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG55" s="3">
+      <c r="AH55" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH55" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI55" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI55" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14502,48 +14454,47 @@
         <v>5</v>
       </c>
       <c r="X56" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y56" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="3">
+      <c r="AB56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD56" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD56" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE56" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE56" s="3">
+      <c r="AF56" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF56" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG56" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG56" s="3">
+      <c r="AH56" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH56" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI56" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI56" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14616,48 +14567,47 @@
         <v>5</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD57" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD57" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF57" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG57" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG57" s="3">
+      <c r="AH57" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH57" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI57" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI57" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14730,48 +14680,47 @@
         <v>5</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD58" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF58" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG58" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG58" s="3">
+      <c r="AH58" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH58" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI58" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI58" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14842,48 +14791,47 @@
         <v>5</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD59" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD59" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF59" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG59" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG59" s="3">
+      <c r="AH59" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH59" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI59" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI59" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14956,48 +14904,47 @@
         <v>5</v>
       </c>
       <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="3">
+        <v>2.9990000000000001</v>
+      </c>
+      <c r="AD60" s="3">
         <f t="shared" si="3"/>
-        <v>2.9990000000000001</v>
-      </c>
-      <c r="AD60" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF60" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG60" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG60" s="3">
+      <c r="AH60" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH60" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI60" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI60" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -15068,48 +15015,47 @@
         <v>5</v>
       </c>
       <c r="X61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD61" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AD61" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE61" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF61" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG61" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
-      <c r="AG61" s="3">
+      <c r="AH61" s="3">
         <f t="shared" si="7"/>
-        <v>5.2</v>
-      </c>
-      <c r="AH61" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="AI61" s="3">
         <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AI61" s="3">
-        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -20496,7 +20442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7506CF-850A-ED42-956F-025E5A994524}">
   <dimension ref="A1:IW33"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="BQ6" sqref="BQ6"/>
     </sheetView>
   </sheetViews>
@@ -34333,7 +34279,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34434,7 +34380,7 @@
         <v>342</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/OurData3SanityCheck.xlsx
+++ b/Data/OurData3SanityCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE8741-EAE2-D04E-98E6-D6C1075DFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02100A4B-6F51-B84D-A71B-6C30BBA0F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="10" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="5" activeTab="14" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="345">
   <si>
     <t>ID</t>
   </si>
@@ -1143,6 +1143,12 @@
   <si>
     <t>Number scenarios hydrogen</t>
   </si>
+  <si>
+    <t>Increase storage costs stage 2</t>
+  </si>
+  <si>
+    <t>Increase storage costs stage 3</t>
+  </si>
 </sst>
 </file>
 
@@ -2131,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902688A-D2A3-854F-B341-C0BEC53AF991}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5734,7 +5740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F599A445-15C0-AB40-A0A7-7DAECA950535}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5862,35 +5868,35 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" cm="1">
         <f t="array" ref="A15">SUM(IF(ISNUMBER(VLOOKUP(A2:A13,Nodes!$B$3:$I$61,8)),VLOOKUP(A2:A13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0</v>
+        <v>32.633767123287676</v>
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUM(IF(ISNUMBER(VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)),VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0</v>
+        <v>8.8860904109589036</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">SUM(IF(ISNUMBER(VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)),VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0</v>
+        <v>3.8482712328767121</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">SUM(IF(ISNUMBER(VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)),VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)))</f>
-        <v>10</v>
+        <v>242.49738630136986</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">SUM(IF(ISNUMBER(VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)),VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0</v>
+        <v>4.0645178082191773</v>
       </c>
       <c r="F15" s="41" cm="1">
         <f t="array" ref="F15">SUM(IF(ISNUMBER(VLOOKUP(F2:F13,Nodes!$B$3:$I$61,8)),VLOOKUP(F2:F13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0</v>
+        <v>10.738131506849314</v>
       </c>
       <c r="G15" s="41" cm="1">
         <f t="array" ref="G15">SUM(IF(ISNUMBER(VLOOKUP(G2:G13,Nodes!$B$3:$I$61,8)),VLOOKUP(G2:G13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0</v>
+        <v>1.5822602739726026</v>
       </c>
       <c r="H15" s="41" cm="1">
         <f t="array" ref="H15">SUM(IF(ISNUMBER(VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)),VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0</v>
+        <v>0.35852054794520549</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
@@ -5923,7 +5929,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5985,40 +5991,35 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>0</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>0</f>
-        <v>0</v>
+        <f>12.5/40</f>
+        <v>0.3125</v>
       </c>
       <c r="H2">
-        <f>0</f>
-        <v>0</v>
+        <f>12.5/40</f>
+        <v>0.3125</v>
       </c>
       <c r="I2">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="K2">
         <f>HLOOKUP(A2,Traders!$A$1:$H$15,15,)</f>
-        <v>0</v>
+        <v>32.633767123287676</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">SUM(B2:I2*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>46.125</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6026,44 +6027,37 @@
         <v>177</v>
       </c>
       <c r="B3">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>0</f>
-        <v>0</v>
+        <f>2.5/45</f>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G3">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>0</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <f>HLOOKUP(A3,Traders!$A$1:$H$15,15,)</f>
-        <v>0</v>
+        <v>8.8860904109589036</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">SUM(B3:I3*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6071,44 +6065,37 @@
         <v>210</v>
       </c>
       <c r="B4">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>0</f>
-        <v>0</v>
+        <f>3.5/45</f>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="F4">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="K4">
         <f>HLOOKUP(A4,Traders!$A$1:$H$15,15,)</f>
-        <v>0</v>
+        <v>3.8482712328767121</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">SUM(B4:I4*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6116,36 +6103,38 @@
         <v>163</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
         <f>HLOOKUP(A5,Traders!$A$1:$H$15,15,)</f>
-        <v>10</v>
+        <v>242.49738630136986</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">SUM(B5:I5*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>4.5</v>
+        <v>267.875</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6153,44 +6142,38 @@
         <v>211</v>
       </c>
       <c r="B6">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>0</f>
-        <v>0</v>
+        <f>1.5/45</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="F6">
-        <f>0</f>
-        <v>0</v>
+        <f>1.5/45</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G6">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="K6">
         <f>HLOOKUP(A6,Traders!$A$1:$H$15,15,)</f>
-        <v>0</v>
+        <v>4.0645178082191773</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">SUM(B6:I6*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6198,44 +6181,36 @@
         <v>212</v>
       </c>
       <c r="B7">
-        <f>0</f>
-        <v>0</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="K7">
         <f>HLOOKUP(A7,Traders!$A$1:$H$15,15,)</f>
-        <v>0</v>
+        <v>10.738131506849314</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">SUM(B7:I7*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>25.874999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6243,44 +6218,37 @@
         <v>214</v>
       </c>
       <c r="B8">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>0</f>
-        <v>0</v>
+        <f>1/45</f>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="G8">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="K8">
         <f>HLOOKUP(A8,Traders!$A$1:$H$15,15,)</f>
-        <v>0</v>
+        <v>1.5822602739726026</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">SUM(B8:I8*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6288,45 +6256,37 @@
         <v>213</v>
       </c>
       <c r="B9">
-        <f>0</f>
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C9">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>0</f>
         <v>0</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9">
         <f>HLOOKUP(A9,Traders!$A$1:$H$15,15,)</f>
-        <v>0</v>
+        <v>0.35852054794520549</v>
       </c>
       <c r="L9" s="40" cm="1">
         <f t="array" ref="L9">SUM(B9:I9*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>0</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6335,39 +6295,39 @@
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:I10" si="0">SUM(C2:C9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">SUM(B10:I10*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>4.5</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6419,7 +6379,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6490,10 +6450,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B95C95-5100-B242-B62A-0A2629824349}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6503,7 +6463,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>85</v>
@@ -6514,24 +6474,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.15</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.15</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>0.3</v>
       </c>
-      <c r="C3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.3</v>
+      </c>
+      <c r="B11">
         <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.3</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.45</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.45</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.45</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.45</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+      <c r="C17">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -8275,8 +8389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8482,7 +8596,8 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B3)</f>
+        <v>23.970863013698629</v>
       </c>
       <c r="J3" s="2">
         <v>8889.5949999999993</v>
@@ -8500,7 +8615,8 @@
         <v>100</v>
       </c>
       <c r="O3" s="2">
-        <v>3</v>
+        <f>IF(C3="Market",1.999,2)</f>
+        <v>2</v>
       </c>
       <c r="P3" s="2">
         <v>5</v>
@@ -8544,7 +8660,7 @@
       </c>
       <c r="AC3" s="3">
         <f>O3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="3">
         <f t="shared" ref="AD3:AI3" si="0">P3</f>
@@ -8593,6 +8709,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -8611,7 +8728,8 @@
         <v>100</v>
       </c>
       <c r="O4" s="2">
-        <v>3</v>
+        <f t="shared" ref="O4:O61" si="1">IF(C4="Market",1.999,2)</f>
+        <v>2</v>
       </c>
       <c r="P4" s="2">
         <v>5</v>
@@ -8647,38 +8765,38 @@
         <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA61" si="1">M4</f>
+        <f t="shared" ref="AA4:AA61" si="2">M4</f>
         <v>10</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <f t="shared" ref="AC4:AC61" si="2">O4</f>
-        <v>3</v>
+        <f t="shared" ref="AC4:AC61" si="3">O4</f>
+        <v>2</v>
       </c>
       <c r="AD4" s="3">
-        <f t="shared" ref="AD4:AD61" si="3">P4</f>
+        <f t="shared" ref="AD4:AD61" si="4">P4</f>
         <v>5</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" ref="AE4:AE61" si="4">Q4</f>
+        <f t="shared" ref="AE4:AE61" si="5">Q4</f>
         <v>5</v>
       </c>
       <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AF61" si="5">R4</f>
+        <f t="shared" ref="AF4:AF61" si="6">R4</f>
         <v>5.2</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AG61" si="6">S4</f>
+        <f t="shared" ref="AG4:AG61" si="7">S4</f>
         <v>5.2</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" ref="AH4:AH61" si="7">T4</f>
+        <f t="shared" ref="AH4:AH61" si="8">T4</f>
         <v>5.4</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" ref="AI4:AI61" si="8">U4</f>
+        <f t="shared" ref="AI4:AI61" si="9">U4</f>
         <v>5.4</v>
       </c>
     </row>
@@ -8706,7 +8824,8 @@
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B5)</f>
+        <v>28.969463013698629</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -8724,7 +8843,8 @@
         <v>100</v>
       </c>
       <c r="O5" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P5" s="2">
         <v>5</v>
@@ -8760,38 +8880,38 @@
         <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF5" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG5" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG5" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8817,6 +8937,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -8835,7 +8956,8 @@
         <v>100</v>
       </c>
       <c r="O6" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P6" s="2">
         <v>5</v>
@@ -8871,38 +8993,38 @@
         <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG6" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -8928,6 +9050,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="29">
@@ -8946,7 +9069,8 @@
         <v>100</v>
       </c>
       <c r="O7" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P7" s="2">
         <v>5</v>
@@ -8982,38 +9106,38 @@
         <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF7" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG7" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9041,7 +9165,8 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B8)</f>
+        <v>0.35852054794520549</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -9059,7 +9184,8 @@
         <v>100</v>
       </c>
       <c r="O8" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P8" s="2">
         <v>5</v>
@@ -9095,38 +9221,38 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG8" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9154,6 +9280,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="2">
@@ -9172,7 +9299,8 @@
         <v>100</v>
       </c>
       <c r="O9" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P9" s="2">
         <v>5</v>
@@ -9208,38 +9336,38 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG9" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9264,8 +9392,8 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
+      <c r="I10" s="29">
+        <v>48</v>
       </c>
       <c r="J10" s="2">
         <v>1282.3420000000001</v>
@@ -9283,7 +9411,8 @@
         <v>100</v>
       </c>
       <c r="O10" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P10" s="2">
         <v>5</v>
@@ -9319,38 +9448,38 @@
         <v>0</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG10" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9376,6 +9505,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="2">
@@ -9394,7 +9524,8 @@
         <v>100</v>
       </c>
       <c r="O11" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P11" s="2">
         <v>5</v>
@@ -9430,38 +9561,38 @@
         <v>0</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB11" s="3">
         <v>0</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG11" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9487,6 +9618,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="2">
@@ -9505,7 +9637,8 @@
         <v>100</v>
       </c>
       <c r="O12" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P12" s="2">
         <v>5</v>
@@ -9541,38 +9674,38 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG12" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9598,6 +9731,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="2">
@@ -9616,7 +9750,8 @@
         <v>100</v>
       </c>
       <c r="O13" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P13" s="2">
         <v>5</v>
@@ -9652,38 +9787,38 @@
         <v>0</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB13" s="3">
         <v>0</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG13" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9709,6 +9844,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -9727,7 +9863,8 @@
         <v>100</v>
       </c>
       <c r="O14" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
         <v>5</v>
@@ -9763,38 +9900,38 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG14" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9822,7 +9959,8 @@
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B15)</f>
+        <v>1.0191780821917809E-2</v>
       </c>
       <c r="J15" s="2">
         <v>48.064999999999998</v>
@@ -9840,7 +9978,8 @@
         <v>100</v>
       </c>
       <c r="O15" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P15" s="2">
         <v>5</v>
@@ -9876,38 +10015,38 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG15" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -9933,6 +10072,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="2">
@@ -9951,7 +10091,8 @@
         <v>100</v>
       </c>
       <c r="O16" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P16" s="2">
         <v>5</v>
@@ -9987,38 +10128,38 @@
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB16" s="3">
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG16" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10044,6 +10185,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -10062,7 +10204,8 @@
         <v>100</v>
       </c>
       <c r="O17" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P17" s="2">
         <v>5</v>
@@ -10098,38 +10241,38 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG17" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10155,6 +10298,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="2">
@@ -10173,7 +10317,8 @@
         <v>100</v>
       </c>
       <c r="O18" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P18" s="2">
         <v>5</v>
@@ -10209,38 +10354,38 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG18" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10268,6 +10413,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="29">
@@ -10286,7 +10432,8 @@
         <v>100</v>
       </c>
       <c r="O19" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P19" s="2">
         <v>5</v>
@@ -10322,38 +10469,38 @@
         <v>0</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB19" s="3">
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG19" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10381,6 +10528,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="2">
@@ -10399,7 +10547,8 @@
         <v>100</v>
       </c>
       <c r="O20" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P20" s="2">
         <v>5</v>
@@ -10435,38 +10584,38 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG20" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10494,7 +10643,8 @@
         <v>5</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B21)</f>
+        <v>4.0645178082191773</v>
       </c>
       <c r="J21" s="2">
         <v>48.064999999999998</v>
@@ -10512,7 +10662,8 @@
         <v>100</v>
       </c>
       <c r="O21" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P21" s="2">
         <v>5</v>
@@ -10548,38 +10699,38 @@
         <v>0</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG21" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10605,7 +10756,8 @@
         <v>5</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B22)</f>
+        <v>3.8482712328767121</v>
       </c>
       <c r="J22" s="2">
         <v>578.78499999999997</v>
@@ -10623,7 +10775,8 @@
         <v>100</v>
       </c>
       <c r="O22" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P22" s="2">
         <v>5</v>
@@ -10659,38 +10812,38 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG22" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10718,6 +10871,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -10736,7 +10890,8 @@
         <v>100</v>
       </c>
       <c r="O23" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P23" s="2">
         <v>5</v>
@@ -10772,38 +10927,38 @@
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG23" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG23" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10831,6 +10986,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -10849,7 +11005,8 @@
         <v>100</v>
       </c>
       <c r="O24" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P24" s="2">
         <v>5</v>
@@ -10885,38 +11042,38 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG24" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -10942,6 +11099,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -10960,7 +11118,8 @@
         <v>100</v>
       </c>
       <c r="O25" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P25" s="2">
         <v>5</v>
@@ -10996,38 +11155,38 @@
         <v>0</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB25" s="3">
         <v>0</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG25" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG25" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11053,6 +11212,7 @@
         <v>5</v>
       </c>
       <c r="I26" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2">
@@ -11071,7 +11231,8 @@
         <v>100</v>
       </c>
       <c r="O26" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P26" s="2">
         <v>5</v>
@@ -11107,38 +11268,38 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG26" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG26" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11166,6 +11327,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2">
@@ -11184,7 +11346,8 @@
         <v>100</v>
       </c>
       <c r="O27" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P27" s="2">
         <v>5</v>
@@ -11220,38 +11383,38 @@
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG27" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11279,7 +11442,8 @@
         <v>5</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B28)</f>
+        <v>10.738131506849314</v>
       </c>
       <c r="J28" s="2">
         <v>2588.0810000000001</v>
@@ -11297,7 +11461,8 @@
         <v>100</v>
       </c>
       <c r="O28" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P28" s="2">
         <v>5</v>
@@ -11333,38 +11498,38 @@
         <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB28" s="3">
         <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG28" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11392,6 +11557,7 @@
         <v>5</v>
       </c>
       <c r="I29" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2">
@@ -11410,7 +11576,8 @@
         <v>100</v>
       </c>
       <c r="O29" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P29" s="2">
         <v>5</v>
@@ -11446,38 +11613,38 @@
         <v>0</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG29" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11503,6 +11670,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2">
@@ -11521,7 +11689,8 @@
         <v>100</v>
       </c>
       <c r="O30" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P30" s="2">
         <v>5</v>
@@ -11557,38 +11726,38 @@
         <v>0</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB30" s="3">
         <v>0</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG30" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11614,6 +11783,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2">
@@ -11632,7 +11802,8 @@
         <v>100</v>
       </c>
       <c r="O31" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P31" s="2">
         <v>5</v>
@@ -11668,38 +11839,38 @@
         <v>0</v>
       </c>
       <c r="AA31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB31" s="3">
         <v>0</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG31" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11725,6 +11896,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2">
@@ -11743,7 +11915,8 @@
         <v>100</v>
       </c>
       <c r="O32" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P32" s="2">
         <v>5</v>
@@ -11779,38 +11952,38 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG32" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG32" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11838,7 +12011,8 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B33)</f>
+        <v>4.2217397260273968</v>
       </c>
       <c r="J33" s="2">
         <v>1214.5999999999999</v>
@@ -11856,7 +12030,8 @@
         <v>100</v>
       </c>
       <c r="O33" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P33" s="2">
         <v>5</v>
@@ -11892,38 +12067,38 @@
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF33" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG33" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -11949,7 +12124,8 @@
         <v>5</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B34)</f>
+        <v>7.2424657534246567E-2</v>
       </c>
       <c r="J34" s="2">
         <v>1329.308</v>
@@ -11967,7 +12143,8 @@
         <v>100</v>
       </c>
       <c r="O34" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P34" s="2">
         <v>5</v>
@@ -12003,38 +12180,38 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB34" s="3">
         <v>0</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG34" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12060,6 +12237,7 @@
         <v>5</v>
       </c>
       <c r="I35" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -12078,7 +12256,8 @@
         <v>100</v>
       </c>
       <c r="O35" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P35" s="2">
         <v>5</v>
@@ -12114,38 +12293,38 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF35" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG35" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12173,7 +12352,8 @@
         <v>5</v>
       </c>
       <c r="I36" s="2">
-        <v>5</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B36)</f>
+        <v>2.3047890410958907</v>
       </c>
       <c r="J36" s="2">
         <v>8889.5949999999993</v>
@@ -12191,7 +12371,8 @@
         <v>100</v>
       </c>
       <c r="O36" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P36" s="2">
         <v>5</v>
@@ -12227,38 +12408,38 @@
         <v>0</v>
       </c>
       <c r="AA36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB36" s="3">
         <v>0</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG36" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG36" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12286,6 +12467,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2">
@@ -12304,7 +12486,8 @@
         <v>100</v>
       </c>
       <c r="O37" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P37" s="2">
         <v>5</v>
@@ -12340,38 +12523,38 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF37" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG37" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG37" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12397,6 +12580,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2">
@@ -12415,7 +12599,8 @@
         <v>100</v>
       </c>
       <c r="O38" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P38" s="2">
         <v>5</v>
@@ -12451,38 +12636,38 @@
         <v>0</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB38" s="3">
         <v>0</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG38" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG38" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12508,6 +12693,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2">
@@ -12526,7 +12712,8 @@
         <v>100</v>
       </c>
       <c r="O39" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P39" s="2">
         <v>5</v>
@@ -12562,38 +12749,38 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB39" s="3">
         <v>0</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG39" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG39" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12619,7 +12806,8 @@
         <v>5</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B40)</f>
+        <v>26.03253698630137</v>
       </c>
       <c r="J40" s="2">
         <v>508.40300000000002</v>
@@ -12637,7 +12825,8 @@
         <v>100</v>
       </c>
       <c r="O40" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P40" s="2">
         <v>5</v>
@@ -12673,38 +12862,38 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG40" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12732,6 +12921,7 @@
         <v>5</v>
       </c>
       <c r="I41" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2">
@@ -12750,7 +12940,8 @@
         <v>100</v>
       </c>
       <c r="O41" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P41" s="2">
         <v>5</v>
@@ -12786,38 +12977,38 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG41" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12843,6 +13034,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2">
@@ -12861,7 +13053,8 @@
         <v>100</v>
       </c>
       <c r="O42" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P42" s="2">
         <v>5</v>
@@ -12897,38 +13090,38 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG42" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -12956,7 +13149,8 @@
         <v>5</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B43)</f>
+        <v>1.5822602739726026</v>
       </c>
       <c r="J43" s="2">
         <v>1041.0509999999999</v>
@@ -12974,7 +13168,8 @@
         <v>100</v>
       </c>
       <c r="O43" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P43" s="2">
         <v>5</v>
@@ -13010,38 +13205,38 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF43" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG43" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13069,6 +13264,7 @@
         <v>5</v>
       </c>
       <c r="I44" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2">
@@ -13087,7 +13283,8 @@
         <v>100</v>
       </c>
       <c r="O44" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P44" s="2">
         <v>5</v>
@@ -13123,38 +13320,38 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF44" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG44" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG44" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13180,6 +13377,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2">
@@ -13198,7 +13396,8 @@
         <v>100</v>
       </c>
       <c r="O45" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P45" s="2">
         <v>5</v>
@@ -13234,38 +13433,38 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG45" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13291,6 +13490,7 @@
         <v>5</v>
       </c>
       <c r="I46" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2">
@@ -13309,7 +13509,8 @@
         <v>100</v>
       </c>
       <c r="O46" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P46" s="2">
         <v>5</v>
@@ -13345,38 +13546,38 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF46" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG46" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13402,7 +13603,8 @@
         <v>5</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B47)</f>
+        <v>32.633767123287676</v>
       </c>
       <c r="J47" s="2">
         <v>48.064999999999998</v>
@@ -13420,7 +13622,8 @@
         <v>100</v>
       </c>
       <c r="O47" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P47" s="2">
         <v>5</v>
@@ -13456,38 +13659,38 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
       <c r="AC47" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF47" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG47" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13513,7 +13716,8 @@
         <v>5</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B48)</f>
+        <v>11.774098630136987</v>
       </c>
       <c r="J48" s="2">
         <v>48.064999999999998</v>
@@ -13531,7 +13735,8 @@
         <v>100</v>
       </c>
       <c r="O48" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P48" s="2">
         <v>5</v>
@@ -13567,38 +13772,38 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF48" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG48" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG48" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13626,6 +13831,7 @@
         <v>5</v>
       </c>
       <c r="I49" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="29">
@@ -13644,7 +13850,8 @@
         <v>100</v>
       </c>
       <c r="O49" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P49" s="2">
         <v>5</v>
@@ -13680,38 +13887,38 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
       <c r="AC49" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF49" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG49" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG49" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13739,6 +13946,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2">
@@ -13757,7 +13965,8 @@
         <v>100</v>
       </c>
       <c r="O50" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P50" s="2">
         <v>5</v>
@@ -13793,38 +14002,38 @@
         <v>0</v>
       </c>
       <c r="AA50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB50" s="3">
         <v>0</v>
       </c>
       <c r="AC50" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF50" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG50" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG50" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13852,7 +14061,8 @@
         <v>5</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B51)</f>
+        <v>8.8860904109589036</v>
       </c>
       <c r="J51" s="2">
         <v>48.064999999999998</v>
@@ -13870,7 +14080,8 @@
         <v>100</v>
       </c>
       <c r="O51" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P51" s="2">
         <v>5</v>
@@ -13906,38 +14117,38 @@
         <v>0</v>
       </c>
       <c r="AA51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB51" s="3">
         <v>0</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF51" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG51" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -13963,7 +14174,8 @@
         <v>5</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B52)</f>
+        <v>10.928873972602741</v>
       </c>
       <c r="J52" s="2">
         <v>291.70999999999998</v>
@@ -13981,7 +14193,8 @@
         <v>100</v>
       </c>
       <c r="O52" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P52" s="2">
         <v>5</v>
@@ -14017,38 +14230,38 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF52" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG52" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14074,6 +14287,7 @@
         <v>5</v>
       </c>
       <c r="I53" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="2">
@@ -14092,7 +14306,8 @@
         <v>100</v>
       </c>
       <c r="O53" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P53" s="2">
         <v>5</v>
@@ -14128,38 +14343,38 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB53" s="3">
         <v>0</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF53" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG53" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14187,6 +14402,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="2">
@@ -14205,7 +14421,8 @@
         <v>100</v>
       </c>
       <c r="O54" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P54" s="2">
         <v>5</v>
@@ -14241,38 +14458,38 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF54" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG54" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG54" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14298,6 +14515,7 @@
         <v>5</v>
       </c>
       <c r="I55" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="2">
@@ -14316,7 +14534,8 @@
         <v>100</v>
       </c>
       <c r="O55" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P55" s="2">
         <v>5</v>
@@ -14352,38 +14571,38 @@
         <v>0</v>
       </c>
       <c r="AA55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB55" s="3">
         <v>0</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF55" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG55" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14409,7 +14628,8 @@
         <v>5</v>
       </c>
       <c r="I56" s="2">
-        <v>5</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B56)</f>
+        <v>16.026747945205479</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -14427,7 +14647,8 @@
         <v>100</v>
       </c>
       <c r="O56" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P56" s="2">
         <v>5</v>
@@ -14463,38 +14684,38 @@
         <v>0</v>
       </c>
       <c r="AA56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB56" s="3">
         <v>0</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF56" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG56" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG56" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14522,6 +14743,7 @@
         <v>5</v>
       </c>
       <c r="I57" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="2">
@@ -14540,7 +14762,8 @@
         <v>100</v>
       </c>
       <c r="O57" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P57" s="2">
         <v>5</v>
@@ -14576,38 +14799,38 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF57" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG57" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG57" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14635,6 +14858,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2">
@@ -14653,7 +14877,8 @@
         <v>100</v>
       </c>
       <c r="O58" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P58" s="2">
         <v>5</v>
@@ -14689,38 +14914,38 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF58" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG58" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG58" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14746,7 +14971,8 @@
         <v>5</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B59)</f>
+        <v>99.237736986301371</v>
       </c>
       <c r="J59" s="2">
         <v>2628.125</v>
@@ -14764,7 +14990,8 @@
         <v>100</v>
       </c>
       <c r="O59" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P59" s="2">
         <v>5</v>
@@ -14800,38 +15027,38 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
       <c r="AC59" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF59" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG59" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG59" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14859,6 +15086,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2">
@@ -14877,7 +15105,8 @@
         <v>100</v>
       </c>
       <c r="O60" s="2">
-        <v>2.9990000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="P60" s="2">
         <v>5</v>
@@ -14913,38 +15142,38 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
       </c>
       <c r="AC60" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9990000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.9990000000000001</v>
       </c>
       <c r="AD60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF60" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG60" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG60" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -14970,6 +15199,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="2">
+        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2">
@@ -14988,7 +15218,8 @@
         <v>100</v>
       </c>
       <c r="O61" s="2">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P61" s="2">
         <v>5</v>
@@ -15024,38 +15255,38 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AD61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AE61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AF61" s="3">
-        <f t="shared" si="5"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG61" s="3">
         <f t="shared" si="6"/>
         <v>5.2</v>
       </c>
+      <c r="AG61" s="3">
+        <f t="shared" si="7"/>
+        <v>5.2</v>
+      </c>
       <c r="AH61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="AI61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
     </row>
@@ -15065,7 +15296,7 @@
       </c>
       <c r="I64">
         <f>SUM(I3:I61)-SUMIF(F3:F61,"Los",I3:I61)</f>
-        <v>5</v>
+        <v>272.52532054794517</v>
       </c>
       <c r="J64" t="s">
         <v>216</v>
@@ -34276,10 +34507,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D89E28-915C-F54C-B37A-2FAB20B0DB56}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34380,7 +34611,23 @@
         <v>342</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/OurData3SanityCheck.xlsx
+++ b/Data/OurData3SanityCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berendmarkhorst/Library/Mobile Documents/com~apple~CloudDocs/PhD/READINESS/08 - Trondheim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02100A4B-6F51-B84D-A71B-6C30BBA0F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB25FD-90C2-5642-8B25-E08556D0A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" firstSheet="5" activeTab="14" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25760" windowHeight="16060" activeTab="2" xr2:uid="{D82E7092-1A4C-0041-9612-C431AA3B912B}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualisation" sheetId="7" r:id="rId1"/>
@@ -5868,35 +5868,35 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" cm="1">
         <f t="array" ref="A15">SUM(IF(ISNUMBER(VLOOKUP(A2:A13,Nodes!$B$3:$I$61,8)),VLOOKUP(A2:A13,Nodes!$B$3:$I$61,8)))</f>
-        <v>32.633767123287676</v>
+        <v>0</v>
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">SUM(IF(ISNUMBER(VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)),VLOOKUP(B2:B13,Nodes!$B$3:$I$61,8)))</f>
-        <v>8.8860904109589036</v>
+        <v>0</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">SUM(IF(ISNUMBER(VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)),VLOOKUP(C2:C13,Nodes!$B$3:$I$61,8)))</f>
-        <v>3.8482712328767121</v>
+        <v>0</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" ref="D15">SUM(IF(ISNUMBER(VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)),VLOOKUP(D2:D13,Nodes!$B$3:$I$61,8)))</f>
-        <v>242.49738630136986</v>
+        <v>5</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">SUM(IF(ISNUMBER(VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)),VLOOKUP(E2:E13,Nodes!$B$3:$I$61,8)))</f>
-        <v>4.0645178082191773</v>
+        <v>0</v>
       </c>
       <c r="F15" s="41" cm="1">
         <f t="array" ref="F15">SUM(IF(ISNUMBER(VLOOKUP(F2:F13,Nodes!$B$3:$I$61,8)),VLOOKUP(F2:F13,Nodes!$B$3:$I$61,8)))</f>
-        <v>10.738131506849314</v>
+        <v>0</v>
       </c>
       <c r="G15" s="41" cm="1">
         <f t="array" ref="G15">SUM(IF(ISNUMBER(VLOOKUP(G2:G13,Nodes!$B$3:$I$61,8)),VLOOKUP(G2:G13,Nodes!$B$3:$I$61,8)))</f>
-        <v>1.5822602739726026</v>
+        <v>0</v>
       </c>
       <c r="H15" s="41" cm="1">
         <f t="array" ref="H15">SUM(IF(ISNUMBER(VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)),VLOOKUP(H2:H13,Nodes!$B$3:$I$61,8)))</f>
-        <v>0.35852054794520549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
@@ -5929,7 +5929,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5991,35 +5991,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>12.5/40</f>
-        <v>0.3125</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>12.5/40</f>
-        <v>0.3125</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I2">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K2">
         <f>HLOOKUP(A2,Traders!$A$1:$H$15,15,)</f>
-        <v>32.633767123287676</v>
+        <v>0</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">SUM(B2:I2*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>46.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6027,37 +6032,44 @@
         <v>177</v>
       </c>
       <c r="B3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>2.5/45</f>
-        <v>5.5555555555555552E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H3">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="K3">
         <f>HLOOKUP(A3,Traders!$A$1:$H$15,15,)</f>
-        <v>8.8860904109589036</v>
+        <v>0</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" ref="L3">SUM(B3:I3*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6065,37 +6077,44 @@
         <v>210</v>
       </c>
       <c r="B4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>3.5/45</f>
-        <v>7.7777777777777779E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I4">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K4">
         <f>HLOOKUP(A4,Traders!$A$1:$H$15,15,)</f>
-        <v>3.8482712328767121</v>
+        <v>0</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" ref="L4">SUM(B4:I4*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6103,38 +6122,43 @@
         <v>163</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>8/9</f>
-        <v>0.88888888888888884</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <f>8/9</f>
-        <v>0.88888888888888884</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6875</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6875</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>HLOOKUP(A5,Traders!$A$1:$H$15,15,)</f>
-        <v>242.49738630136986</v>
+        <v>5</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" ref="L5">SUM(B5:I5*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>267.875</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6142,38 +6166,44 @@
         <v>211</v>
       </c>
       <c r="B6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>1.5/45</f>
-        <v>3.3333333333333333E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="F6">
-        <f>1.5/45</f>
-        <v>3.3333333333333333E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I6">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K6">
         <f>HLOOKUP(A6,Traders!$A$1:$H$15,15,)</f>
-        <v>4.0645178082191773</v>
+        <v>0</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" ref="L6">SUM(B6:I6*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6181,36 +6211,44 @@
         <v>212</v>
       </c>
       <c r="B7">
-        <v>0.57499999999999996</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I7">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K7">
         <f>HLOOKUP(A7,Traders!$A$1:$H$15,15,)</f>
-        <v>10.738131506849314</v>
+        <v>0</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" ref="L7">SUM(B7:I7*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>25.874999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6218,37 +6256,44 @@
         <v>214</v>
       </c>
       <c r="B8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>1/45</f>
-        <v>2.2222222222222223E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I8">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="K8">
         <f>HLOOKUP(A8,Traders!$A$1:$H$15,15,)</f>
-        <v>1.5822602739726026</v>
+        <v>0</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" ref="L8">SUM(B8:I8*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6256,37 +6301,45 @@
         <v>213</v>
       </c>
       <c r="B9">
-        <v>2.5000000000000001E-2</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="C9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I9">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9">
         <f>HLOOKUP(A9,Traders!$A$1:$H$15,15,)</f>
-        <v>0.35852054794520549</v>
+        <v>0</v>
       </c>
       <c r="L9" s="40" cm="1">
         <f t="array" ref="L9">SUM(B9:I9*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>1.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6295,39 +6348,39 @@
       </c>
       <c r="B10">
         <f>SUM(B2:B9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f t="shared" ref="C10:I10" si="0">SUM(C2:C9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>0.99999999999999989</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" ref="L10">SUM(B10:I10*MAX('Demand Stage 1'!$B$5:$I$12))</f>
-        <v>360</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -6450,11 +6503,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B95C95-5100-B242-B62A-0A2629824349}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6480,172 +6531,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1.5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.15</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.15</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.15</v>
-      </c>
-      <c r="B9">
-        <v>1.5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.3</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.3</v>
-      </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.3</v>
-      </c>
-      <c r="B13">
-        <v>1.5</v>
-      </c>
-      <c r="C13">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0.45</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.45</v>
-      </c>
-      <c r="B15">
-        <v>0.5</v>
-      </c>
-      <c r="C15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0.45</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.45</v>
-      </c>
-      <c r="B17">
-        <v>1.5</v>
-      </c>
-      <c r="C17">
-        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -8389,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F5746-A1B1-6F4F-9762-CACD4A91B5F2}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8596,8 +8482,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B3)</f>
-        <v>23.970863013698629</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <v>8889.5949999999993</v>
@@ -8709,7 +8594,6 @@
         <v>5</v>
       </c>
       <c r="I4" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -8824,8 +8708,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B5)</f>
-        <v>28.969463013698629</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -8937,7 +8820,6 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -9050,7 +8932,6 @@
         <v>5</v>
       </c>
       <c r="I7" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="29">
@@ -9165,8 +9046,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B8)</f>
-        <v>0.35852054794520549</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -9280,7 +9160,6 @@
         <v>5</v>
       </c>
       <c r="I9" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="2">
@@ -9392,8 +9271,8 @@
       <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="29">
-        <v>48</v>
+      <c r="I10" s="2">
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>1282.3420000000001</v>
@@ -9505,7 +9384,6 @@
         <v>5</v>
       </c>
       <c r="I11" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="2">
@@ -9618,7 +9496,6 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="2">
@@ -9731,7 +9608,6 @@
         <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="2">
@@ -9844,7 +9720,6 @@
         <v>5</v>
       </c>
       <c r="I14" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -9959,8 +9834,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B15)</f>
-        <v>1.0191780821917809E-2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>48.064999999999998</v>
@@ -10072,7 +9946,6 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="2">
@@ -10185,7 +10058,6 @@
         <v>5</v>
       </c>
       <c r="I17" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -10298,7 +10170,6 @@
         <v>5</v>
       </c>
       <c r="I18" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="2">
@@ -10413,7 +10284,6 @@
         <v>5</v>
       </c>
       <c r="I19" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="29">
@@ -10528,7 +10398,6 @@
         <v>5</v>
       </c>
       <c r="I20" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="2">
@@ -10643,8 +10512,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B21)</f>
-        <v>4.0645178082191773</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>48.064999999999998</v>
@@ -10756,8 +10624,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B22)</f>
-        <v>3.8482712328767121</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
         <v>578.78499999999997</v>
@@ -10871,7 +10738,6 @@
         <v>5</v>
       </c>
       <c r="I23" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -10986,7 +10852,6 @@
         <v>5</v>
       </c>
       <c r="I24" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -11099,7 +10964,6 @@
         <v>5</v>
       </c>
       <c r="I25" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -11212,7 +11076,6 @@
         <v>5</v>
       </c>
       <c r="I26" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2">
@@ -11327,7 +11190,6 @@
         <v>5</v>
       </c>
       <c r="I27" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2">
@@ -11442,8 +11304,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B28)</f>
-        <v>10.738131506849314</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <v>2588.0810000000001</v>
@@ -11557,7 +11418,6 @@
         <v>5</v>
       </c>
       <c r="I29" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2">
@@ -11670,7 +11530,6 @@
         <v>5</v>
       </c>
       <c r="I30" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2">
@@ -11783,7 +11642,6 @@
         <v>5</v>
       </c>
       <c r="I31" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2">
@@ -11896,7 +11754,6 @@
         <v>5</v>
       </c>
       <c r="I32" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2">
@@ -12011,8 +11868,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B33)</f>
-        <v>4.2217397260273968</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>1214.5999999999999</v>
@@ -12124,8 +11980,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B34)</f>
-        <v>7.2424657534246567E-2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <v>1329.308</v>
@@ -12237,7 +12092,6 @@
         <v>5</v>
       </c>
       <c r="I35" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -12352,8 +12206,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B36)</f>
-        <v>2.3047890410958907</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>8889.5949999999993</v>
@@ -12467,7 +12320,6 @@
         <v>5</v>
       </c>
       <c r="I37" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2">
@@ -12580,7 +12432,6 @@
         <v>5</v>
       </c>
       <c r="I38" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2">
@@ -12693,7 +12544,6 @@
         <v>5</v>
       </c>
       <c r="I39" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2">
@@ -12806,8 +12656,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B40)</f>
-        <v>26.03253698630137</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
         <v>508.40300000000002</v>
@@ -12921,7 +12770,6 @@
         <v>5</v>
       </c>
       <c r="I41" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2">
@@ -13034,7 +12882,6 @@
         <v>5</v>
       </c>
       <c r="I42" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2">
@@ -13149,8 +12996,7 @@
         <v>5</v>
       </c>
       <c r="I43" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B43)</f>
-        <v>1.5822602739726026</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
         <v>1041.0509999999999</v>
@@ -13264,7 +13110,6 @@
         <v>5</v>
       </c>
       <c r="I44" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2">
@@ -13377,7 +13222,6 @@
         <v>5</v>
       </c>
       <c r="I45" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2">
@@ -13490,7 +13334,6 @@
         <v>5</v>
       </c>
       <c r="I46" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2">
@@ -13603,8 +13446,7 @@
         <v>5</v>
       </c>
       <c r="I47" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B47)</f>
-        <v>32.633767123287676</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
         <v>48.064999999999998</v>
@@ -13716,8 +13558,7 @@
         <v>5</v>
       </c>
       <c r="I48" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B48)</f>
-        <v>11.774098630136987</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
         <v>48.064999999999998</v>
@@ -13831,7 +13672,6 @@
         <v>5</v>
       </c>
       <c r="I49" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="29">
@@ -13946,7 +13786,6 @@
         <v>5</v>
       </c>
       <c r="I50" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2">
@@ -14061,8 +13900,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B51)</f>
-        <v>8.8860904109589036</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
         <v>48.064999999999998</v>
@@ -14174,8 +14012,7 @@
         <v>5</v>
       </c>
       <c r="I52" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B52)</f>
-        <v>10.928873972602741</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2">
         <v>291.70999999999998</v>
@@ -14287,7 +14124,6 @@
         <v>5</v>
       </c>
       <c r="I53" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="2">
@@ -14402,7 +14238,6 @@
         <v>5</v>
       </c>
       <c r="I54" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="2">
@@ -14515,7 +14350,6 @@
         <v>5</v>
       </c>
       <c r="I55" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="2">
@@ -14628,8 +14462,7 @@
         <v>5</v>
       </c>
       <c r="I56" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B56)</f>
-        <v>16.026747945205479</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -14743,7 +14576,6 @@
         <v>5</v>
       </c>
       <c r="I57" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="2">
@@ -14858,7 +14690,6 @@
         <v>5</v>
       </c>
       <c r="I58" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2">
@@ -14971,8 +14802,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B59)</f>
-        <v>99.237736986301371</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2">
         <v>2628.125</v>
@@ -15086,7 +14916,6 @@
         <v>5</v>
       </c>
       <c r="I60" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2">
@@ -15199,7 +15028,6 @@
         <v>5</v>
       </c>
       <c r="I61" s="2">
-        <f>SUMIFS(ProductionCapacities!$F$2:$F$51,ProductionCapacities!$E$2:$E$51,Nodes!B61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2">
@@ -15296,7 +15124,7 @@
       </c>
       <c r="I64">
         <f>SUM(I3:I61)-SUMIF(F3:F61,"Los",I3:I61)</f>
-        <v>272.52532054794517</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
         <v>216</v>
@@ -34510,7 +34338,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34611,7 +34439,7 @@
         <v>342</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
